--- a/data/trans_camb/P16A98-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A98-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 11,33</t>
+          <t>4,22; 10,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,42</t>
+          <t>-0,24; 3,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; -0,21</t>
+          <t>-1,86; -0,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,05; 23,76</t>
+          <t>13,01; 23,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 7,66</t>
+          <t>-0,32; 7,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; -0,34</t>
+          <t>-3,17; -0,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,3; 15,48</t>
+          <t>9,13; 15,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,77</t>
+          <t>0,13; 3,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; -0,37</t>
+          <t>-1,7; -0,28</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>265,41; 4204,0</t>
+          <t>246,56; 4520,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,4; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>504,97; 6179,2</t>
+          <t>486,24; 6035,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,67; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>596,59; 3678,24</t>
+          <t>589,11; 4015,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 816,03</t>
+          <t>-12,35; 904,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,89</t>
+          <t>0,61; 1,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,19</t>
+          <t>0,21; 1,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,27 +916,27 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,68</t>
+          <t>1,07; 3,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,87</t>
+          <t>0,39; 1,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,0</t>
+          <t>-0,58; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,12</t>
+          <t>0,96; 2,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,2</t>
+          <t>0,37; 1,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,18</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,91</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,09</t>
+          <t>0,22; 2,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,65</t>
+          <t>0,17; 1,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,9</t>
+          <t>1,44; 2,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,13</t>
+          <t>0,24; 1,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; -0,04</t>
+          <t>-0,37; -0,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 6,95</t>
+          <t>4,02; 6,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,79</t>
+          <t>0,31; 1,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; -0,08</t>
+          <t>-0,74; -0,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,22</t>
+          <t>2,74; 4,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,23</t>
+          <t>0,4; 1,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; -0,09</t>
+          <t>-0,42; -0,09</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>366,06; 5567,99</t>
+          <t>365,29; 5493,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,64; 2671,18</t>
+          <t>48,88; 2297,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>667,67; 7474,91</t>
+          <t>618,7; 7656,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,9; 1832,67</t>
+          <t>34,46; 1632,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>716,02; 4304,06</t>
+          <t>745,88; 3822,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>87,65; 1202,74</t>
+          <t>110,64; 1201,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">

--- a/data/trans_camb/P16A98-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A98-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 10,89</t>
+          <t>4,25; 10,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,47</t>
+          <t>-0,38; 3,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; -0,21</t>
+          <t>-1,78; -0,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,01; 23,48</t>
+          <t>12,98; 23,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 7,04</t>
+          <t>-0,49; 7,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; -0,34</t>
+          <t>-2,79; -0,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,13; 15,23</t>
+          <t>9,26; 15,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 3,71</t>
+          <t>0,09; 3,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; -0,28</t>
+          <t>-1,79; -0,29</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>246,56; 4520,69</t>
+          <t>257,46; 3860,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>486,24; 6035,03</t>
+          <t>532,43; 6019,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,67; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>589,11; 4015,71</t>
+          <t>570,76; 4540,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 904,61</t>
+          <t>-16,97; 1121,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,84</t>
+          <t>0,56; 1,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,18</t>
+          <t>0,21; 1,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,27 +916,27 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,64</t>
+          <t>1,04; 3,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,93</t>
+          <t>0,37; 1,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,0</t>
+          <t>-0,57; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,19</t>
+          <t>0,89; 2,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,21</t>
+          <t>0,36; 1,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,44</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,35</t>
+          <t>0,0; 3,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,16</t>
+          <t>0,22; 2,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,47</t>
+          <t>0,17; 1,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,86</t>
+          <t>1,44; 2,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,12</t>
+          <t>0,2; 1,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,92</t>
+          <t>3,98; 7,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,75</t>
+          <t>0,27; 1,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,74; -0,08</t>
+          <t>-0,73; -0,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,22</t>
+          <t>2,65; 4,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,22</t>
+          <t>0,38; 1,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; -0,09</t>
+          <t>-0,41; -0,09</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>365,29; 5493,61</t>
+          <t>402,52; 6086,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,88; 2297,84</t>
+          <t>28,82; 2174,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>618,7; 7656,75</t>
+          <t>614,45; 7042,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,46; 1632,69</t>
+          <t>20,13; 1566,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>745,88; 3822,33</t>
+          <t>750,86; 4065,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>110,64; 1201,1</t>
+          <t>78,61; 1068,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
